--- a/training/output/Resnet34_ViT/P/P1_P0.xlsx
+++ b/training/output/Resnet34_ViT/P/P1_P0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8881578947368421</v>
+        <v>0.6535014005602242</v>
       </c>
       <c r="B2" t="n">
-        <v>1.771597228552166</v>
+        <v>1.542109342182384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9758771929824561</v>
+        <v>0.8308683473389357</v>
       </c>
       <c r="B3" t="n">
-        <v>1.54610496445706</v>
+        <v>1.238827004152186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.8816806722689075</v>
       </c>
       <c r="B4" t="n">
-        <v>1.484626954061943</v>
+        <v>1.087210606126224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9030812324929972</v>
       </c>
       <c r="B5" t="n">
-        <v>1.433732971810458</v>
+        <v>0.9950008252087761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9268347338935574</v>
       </c>
       <c r="B6" t="n">
-        <v>1.442248264948527</v>
+        <v>0.9271423010265126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9352941176470587</v>
       </c>
       <c r="B7" t="n">
-        <v>1.441753862196939</v>
+        <v>0.8799808060421663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9452941176470588</v>
       </c>
       <c r="B8" t="n">
-        <v>1.453382901978074</v>
+        <v>0.8400436569662655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9444817927170869</v>
       </c>
       <c r="B9" t="n">
-        <v>1.435856210558038</v>
+        <v>0.8121000212781569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9511764705882352</v>
       </c>
       <c r="B10" t="n">
-        <v>1.41555623004311</v>
+        <v>0.7843001274501576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9533053221288514</v>
       </c>
       <c r="B11" t="n">
-        <v>1.455760248920374</v>
+        <v>0.7640194998067968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9570588235294117</v>
       </c>
       <c r="B12" t="n">
-        <v>1.443379571563319</v>
+        <v>0.7549561717930962</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9523529411764704</v>
       </c>
       <c r="B13" t="n">
-        <v>1.433745198082506</v>
+        <v>0.7490289106088526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.96</v>
       </c>
       <c r="B14" t="n">
-        <v>1.437582051544859</v>
+        <v>0.7421956237624673</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9547058823529412</v>
       </c>
       <c r="B15" t="n">
-        <v>1.418288412847017</v>
+        <v>0.7440028926905464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9576470588235295</v>
       </c>
       <c r="B16" t="n">
-        <v>1.411012927691142</v>
+        <v>0.7339483569650089</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B17" t="n">
-        <v>1.401867609275015</v>
+        <v>0.7328294445486629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B18" t="n">
-        <v>1.406629612571315</v>
+        <v>0.7267647631028119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B19" t="n">
-        <v>1.433536606922484</v>
+        <v>0.7285179986673243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B20" t="n">
-        <v>1.469314780151635</v>
+        <v>0.7258902297300451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9617647058823531</v>
       </c>
       <c r="B21" t="n">
-        <v>1.439873254090025</v>
+        <v>0.7278002605718725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B22" t="n">
-        <v>1.444630376079626</v>
+        <v>0.7260679357192096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B23" t="n">
-        <v>1.407340677160966</v>
+        <v>0.728886604309082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B24" t="n">
-        <v>1.408735423757319</v>
+        <v>0.7231176635798287</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9576470588235295</v>
       </c>
       <c r="B25" t="n">
-        <v>1.426293580155624</v>
+        <v>0.7212942277683931</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B26" t="n">
-        <v>1.405817692739922</v>
+        <v>0.7187976907281315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B27" t="n">
-        <v>1.399906603913558</v>
+        <v>0.7180963684530819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B28" t="n">
-        <v>1.411107659339905</v>
+        <v>0.7172870390555438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9594117647058823</v>
       </c>
       <c r="B29" t="n">
-        <v>1.417152597193132</v>
+        <v>0.7230633286868825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B30" t="n">
-        <v>1.404562925037585</v>
+        <v>0.7219835484729094</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B31" t="n">
-        <v>1.397456045736346</v>
+        <v>0.7150954744395088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B32" t="n">
-        <v>1.400009558911909</v>
+        <v>0.7171926007551306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B33" t="n">
-        <v>1.399084139288517</v>
+        <v>0.7162701171987197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B34" t="n">
-        <v>1.422701471730282</v>
+        <v>0.715394048129811</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B35" t="n">
-        <v>1.425505393429806</v>
+        <v>0.7142631692044875</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B36" t="n">
-        <v>1.402443574185957</v>
+        <v>0.7154273671262404</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9558823529411765</v>
       </c>
       <c r="B37" t="n">
-        <v>1.399847561852974</v>
+        <v>0.711671489126542</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B38" t="n">
-        <v>1.396007719792818</v>
+        <v>0.7122833483359393</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B39" t="n">
-        <v>1.393054462315743</v>
+        <v>0.7107326458482182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B40" t="n">
-        <v>1.393889945850038</v>
+        <v>0.7137945960549748</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B41" t="n">
-        <v>1.391125287925988</v>
+        <v>0.7119440962286556</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B42" t="n">
-        <v>1.391251999035216</v>
+        <v>0.7099025424788979</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B43" t="n">
-        <v>1.397557289976823</v>
+        <v>0.7163744989563438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B44" t="n">
-        <v>1.393512780206245</v>
+        <v>0.713987764190225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B45" t="n">
-        <v>1.393711470721061</v>
+        <v>0.7129509343820459</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B46" t="n">
-        <v>1.39875678848802</v>
+        <v>0.7110191268079421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9617647058823531</v>
       </c>
       <c r="B47" t="n">
-        <v>1.394802405123125</v>
+        <v>0.7119323996936574</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B48" t="n">
-        <v>1.397695602032176</v>
+        <v>0.7115481706226573</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9629411764705883</v>
       </c>
       <c r="B49" t="n">
-        <v>1.412726891668219</v>
+        <v>0.7108249068260193</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B50" t="n">
-        <v>1.40208511603506</v>
+        <v>0.7115150304401622</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B51" t="n">
-        <v>1.396552730024907</v>
+        <v>0.7101458240957821</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9635294117647059</v>
       </c>
       <c r="B52" t="n">
-        <v>1.40835261972327</v>
+        <v>0.7117735988953534</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B53" t="n">
-        <v>1.400221628055238</v>
+        <v>0.7095261075917412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B54" t="n">
-        <v>1.404428492512619</v>
+        <v>0.7108553718118107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B55" t="n">
-        <v>1.399182880133913</v>
+        <v>0.7088765817530015</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B56" t="n">
-        <v>1.406180379683511</v>
+        <v>0.711114879916696</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B57" t="n">
-        <v>1.405172908515261</v>
+        <v>0.7080744610113257</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B58" t="n">
-        <v>1.398134618474726</v>
+        <v>0.7089346612201017</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B59" t="n">
-        <v>1.392222345921031</v>
+        <v>0.7098924763062421</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B60" t="n">
-        <v>1.435879297423781</v>
+        <v>0.7080550228848177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B61" t="n">
-        <v>1.395740839472988</v>
+        <v>0.7085577459896312</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B62" t="n">
-        <v>1.395562669687104</v>
+        <v>0.7092486584887785</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B63" t="n">
-        <v>1.391220485954954</v>
+        <v>0.7074417647193459</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B64" t="n">
-        <v>1.391285446652195</v>
+        <v>0.7087553003255058</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B65" t="n">
-        <v>1.394439678443106</v>
+        <v>0.7071379282895256</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B66" t="n">
-        <v>1.446493431141502</v>
+        <v>0.7060814149239484</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B67" t="n">
-        <v>1.403339425722758</v>
+        <v>0.7097311160143684</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B68" t="n">
-        <v>1.395967395682084</v>
+        <v>0.7091670807670144</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B69" t="n">
-        <v>1.392110318468328</v>
+        <v>0.7071873019723331</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B70" t="n">
-        <v>1.393687620497587</v>
+        <v>0.7071923087624943</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B71" t="n">
-        <v>1.422532529161687</v>
+        <v>0.71034074530882</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B72" t="n">
-        <v>1.398146876117639</v>
+        <v>0.7098537332871381</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9723529411764706</v>
       </c>
       <c r="B73" t="n">
-        <v>1.428282313179551</v>
+        <v>0.7075151730986202</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9758823529411764</v>
       </c>
       <c r="B74" t="n">
-        <v>1.398375046880622</v>
+        <v>0.7060421284507302</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B75" t="n">
-        <v>1.399725238482157</v>
+        <v>0.7078709076432621</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B76" t="n">
-        <v>1.391815591276738</v>
+        <v>0.7202807980425218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9694117647058822</v>
       </c>
       <c r="B77" t="n">
-        <v>1.391168523253056</v>
+        <v>0.7056582009091097</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0.9699999999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>1.399040763838249</v>
+        <v>0.7063006793751436</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392655876644871</v>
+        <v>0.7061014140353483</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B80" t="n">
-        <v>1.393155679368136</v>
+        <v>0.7075060395633473</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B81" t="n">
-        <v>1.437680003935831</v>
+        <v>0.7067851283971001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B82" t="n">
-        <v>1.401728119766503</v>
+        <v>0.7060703600154203</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B83" t="n">
-        <v>1.392317374547323</v>
+        <v>0.706993373001323</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B84" t="n">
-        <v>1.401534666094864</v>
+        <v>0.7080742471358356</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391432732866521</v>
+        <v>0.7066611928098342</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B86" t="n">
-        <v>1.415988227777314</v>
+        <v>0.7066661049337948</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B87" t="n">
-        <v>1.403126854645578</v>
+        <v>0.7069736578885246</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B88" t="n">
-        <v>1.441169880984122</v>
+        <v>0.7059524374849656</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9588235294117647</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401849280323899</v>
+        <v>0.7322102785110474</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0.9635294117647059</v>
       </c>
       <c r="B90" t="n">
-        <v>1.396176438582571</v>
+        <v>0.7120175992741304</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B91" t="n">
-        <v>1.400786640351279</v>
+        <v>0.7094114457859713</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B92" t="n">
-        <v>1.391772263928464</v>
+        <v>0.7081729945014504</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B93" t="n">
-        <v>1.398274189547489</v>
+        <v>0.7072023959720836</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B94" t="n">
-        <v>1.402235426400837</v>
+        <v>0.7074472448405098</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B95" t="n">
-        <v>1.391683404905754</v>
+        <v>0.7073334420428556</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B96" t="n">
-        <v>1.38911815902643</v>
+        <v>0.706300791572122</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B97" t="n">
-        <v>1.396678083821347</v>
+        <v>0.7068474573247573</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9594117647058825</v>
       </c>
       <c r="B98" t="n">
-        <v>1.404291606785958</v>
+        <v>0.708651230615728</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396335131243656</v>
+        <v>0.7070797927239362</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B100" t="n">
-        <v>1.400130673458702</v>
+        <v>0.7053917085423189</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B101" t="n">
-        <v>1.395543673582244</v>
+        <v>0.7065060454256394</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.70590420330272</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7051197150174309</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7050385790712693</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7058305179371553</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7061661096180186</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9670588235294119</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7040305488249835</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7041884765905493</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.706083662369672</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.705864454016966</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7051182249013115</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7058625992606667</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7034422895487618</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7044948129092946</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7046113224590526</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9658823529411765</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7038368968402638</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7053086126551908</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7053843421094558</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7037093569250668</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7050702221253339</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7050620597951552</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7049366200671476</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7033075024099911</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7048698523465324</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9711764705882352</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.70410476362004</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.703781380372889</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7035445009960848</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7031936680569368</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7026532081996694</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7036214961725122</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7040683311574599</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7041800653233248</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9717647058823529</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7030308562166551</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9711764705882352</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7041607569245731</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7050430178642273</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7031398205196157</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7037384194486281</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9717647058823529</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7029160681892844</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7034213192322675</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.703045508440803</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7030666751020095</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9711764705882352</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7023725159027997</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7039327270844403</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.703143530032214</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7027431200532352</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9699999999999999</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7035566042451298</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7027770596392015</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7021718831623301</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9717647058823529</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7028731072650236</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7017984951243681</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7029182455118965</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7037724922685062</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7026935570380267</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7029642708161298</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7020974159240723</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9699999999999999</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7031663726357853</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7024899580899406</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7048314914983862</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7029072081341463</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7024413242059595</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7022409894887138</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9735294117647058</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7032791446237003</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9717647058823529</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7028841306181515</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9723529411764706</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7032541913144729</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9717647058823529</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7019933882881614</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9711764705882352</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.70195612486671</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9723529411764706</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7063478652168723</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9629411764705881</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7038392494706547</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7028887482250438</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7020485962138456</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7031062175245846</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7030470301123226</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.702897145467646</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7026660021613625</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7021366217557121</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7016443049206453</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7022706445525674</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7027065368259654</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7023573938538047</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7032066408325645</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7025117207975948</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9658823529411765</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7014716162401087</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7029166256680208</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7030229358112111</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7025176391882055</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7017674095490399</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7018388685058145</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7014688954633825</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9699999999999999</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7111047576455509</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7012866910766152</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7025607684079338</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7015518370796653</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7011182763997246</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7021543874460108</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7012828097623938</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9658823529411765</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7017532972728505</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7018513819750618</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7018928562893587</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7011775409474093</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7017243574647343</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.702227392617394</v>
       </c>
     </row>
   </sheetData>
